--- a/biology/Botanique/Prunus_sargentii/Prunus_sargentii.xlsx
+++ b/biology/Botanique/Prunus_sargentii/Prunus_sargentii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerisier de Sargent
 Prunus sargentii est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un cerisier à fleurs, natif au Japon, en Corée, aux îles Kouriles et à Sakhaline. En français, il est appelé Cerisier de Sargent. Au Japon, on l'appelle Cerisier des grandes montagnes (大山桜, Ō-yama-zakura?) ou Cerisier des montagnes d'Ezo (蝦夷山桜, Ezo-yama-zakura?) (Ezo étant l'ancien nom de l'île d'Hokkaidō).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre (6 à 12 m maximum) à houppier dense d'une largeur généralement égale à la hauteur de l'arbre.
 Ses feuilles simples, lancéolées et dentées sont alternes et à court pétiole.
@@ -548,7 +562,9 @@
           <t>Sakura et Hanami</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japonais célèbrent la floraison des cerisiers à fleurs (sakura) lors de manifestations appelées Hanami.
 </t>
@@ -579,11 +595,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerisier de Sargent est un arbre de croissance rapide. Il préfère le plein soleil et un sol bien drainé. Il est réputé sensible à la pollution et supporte mal la sécheresse.
 Étant très résistant au froid (jusqu'à −32 °C), on le trouve couramment dans le Nord du Japon.
-Il est fréquemment utilisé en plantation ornementale sur le bord des routes d'Hokkaidō. Dans le village de Shinhidaka, sous-préfecture de Hidaka, la route de 36 m de large 二十間道路 (Nijikken-dōro?) est plantée de cerisiers de Sargent sur 7 km. La plantation réalisée en hommage à la famille impériale, achevée en 1916, est aujourd'hui une importante attraction touristique[1].
+Il est fréquemment utilisé en plantation ornementale sur le bord des routes d'Hokkaidō. Dans le village de Shinhidaka, sous-préfecture de Hidaka, la route de 36 m de large 二十間道路 (Nijikken-dōro?) est plantée de cerisiers de Sargent sur 7 km. La plantation réalisée en hommage à la famille impériale, achevée en 1916, est aujourd'hui une importante attraction touristique.
 </t>
         </is>
       </c>
